--- a/JupyterNotebooks/AveragedIntensites/UniformA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/UniformA-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="UniformA-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="UniformA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/UniformA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/UniformA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1</v>

--- a/JupyterNotebooks/AveragedIntensites/UniformA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/UniformA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1258,6 +1267,156 @@
         <v>1</v>
       </c>
       <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>1</v>
       </c>
     </row>
